--- a/docs/IMU RC - Custos_2.xlsx
+++ b/docs/IMU RC - Custos_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C8B682FE-CC30-4A04-A959-71FB2F9D367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D64DEB22-3242-4EC0-840A-08F210B23134}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3680B-8655-4557-A080-00E1EB8544D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Previsão de custos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Previsão de custos'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Previsão de custos'!$A$1:$H$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Previsão de custos'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Dep. Eng. Eletrotécnica - UC de Projeto em Engenharia Eletrotécnica e de Computadores</t>
   </si>
@@ -98,6 +98,129 @@
   </si>
   <si>
     <t>[4]</t>
+  </si>
+  <si>
+    <t>Módulo 6 Graus de Liberdade LSM6DSO</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/imu/10133-modulo-6-graus-de-liberdade-lsm6dso-qwiic-sparkfun-.html</t>
+  </si>
+  <si>
+    <t>PTRobotics</t>
+  </si>
+  <si>
+    <t>https://mauser.pt/catalog/product_info.php?cPath=74_1990&amp;products_id=035-4576</t>
+  </si>
+  <si>
+    <t>Bateria 3.7V 250mAh Li-Po - 18x42x4mm</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/STMicroelectronics/LSM6DSOXTR?qs=l7cgNqFNU1i9dcjzItLpVQ%3D%3D</t>
+  </si>
+  <si>
+    <t>LSM6DSOXTR</t>
+  </si>
+  <si>
+    <t>https://mauser.pt/catalog/product_info.php?cPath=1874_640_1658&amp;products_id=011-3291</t>
+  </si>
+  <si>
+    <t>Ficha Raster Signal wire-board 1.00mm 4 pinos (1x4) macho</t>
+  </si>
+  <si>
+    <t>Ficha Raster Signal wire-board 2.00mm 2 pinos (1x2) macho</t>
+  </si>
+  <si>
+    <t>https://mauser.pt/catalog/product_info.php?cPath=1874_640_1983&amp;products_id=011-1297</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/GCT/USB4105-GF-A-060?qs=QNEnbhJQKvY2mocwNJzgfA%3D%3D</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A-060</t>
+  </si>
+  <si>
+    <t>B3U-1000P</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Omron-Electronics/B3U-1000P?qs=AO7BQMcsEu4ip80xyf2FwA%3D%3D</t>
+  </si>
+  <si>
+    <t>ESD5B5V0WT TVS/ESD Diodes</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Diotec-Semiconductor/ESD5B5V0WT?qs=XAiT9M5g4x8qhiCiY0MNeQ%3D%3D</t>
+  </si>
+  <si>
+    <t>1N5819HW-7-F</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Diodes-Incorporated/1N5819HW-7-F?qs=NQ47qNm99eDyWTEd07miYA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/STMicroelectronics/BAT20JFILM?qs=6cWmAGMIEBzKXM4JcoRdbw%3D%3D</t>
+  </si>
+  <si>
+    <t>BAT20JFILM</t>
+  </si>
+  <si>
+    <t>IRLML6344TRPBF</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Infineon-Technologies/IRLML6344TRPBF?qs=9%252BKlkBgLFf2w4qS48UOXVw%3D%3D</t>
+  </si>
+  <si>
+    <t>DMP3160L-7</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Diodes-Incorporated/DMP3160L-7?qs=ptj1V1atRAqxw6Nfd%2FjkqA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Diodes-Incorporated/BSS138-7-F?qs=TJSU9qitBVRAP5gIAnNy0g%3D%3D</t>
+  </si>
+  <si>
+    <t>BSS138-7-F</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Diotec-Semiconductor/BC807-25?qs=OlC7AqGiEDnvRX35Gu%2F4yQ%3D%3D</t>
+  </si>
+  <si>
+    <t>BC807-25</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Microchip-Technology/MCP73831-2DCI-MC?qs=hH%252BOa0VZEiBQ%2FrptDRXKdg%3D%3D</t>
+  </si>
+  <si>
+    <t>MCP73831-2DCI/MC</t>
+  </si>
+  <si>
+    <t>BQ29704DSER</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Texas-Instruments/BQ29704DSER?qs=7z%252BmIopC6%2FKzyMUN7W%252BSIw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Diodes-Incorporated/AP2112K-3.3TRG1?qs=x6A8l6qLYDDPYHosCdzh%2FA%3D%3D</t>
+  </si>
+  <si>
+    <t>AP2112K-3.3TRG1</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Silicon-Labs/CP2102N-A02-GQFN24R?qs=u16ybLDytRaIVBf0X4zL0g%3D%3D</t>
+  </si>
+  <si>
+    <t>CP2102N-A02-GQFN24R</t>
+  </si>
+  <si>
+    <t>ESP32-S3-WROOM-1-N16</t>
+  </si>
+  <si>
+    <t>https://pt.mouser.com/ProductDetail/Espressif-Systems/ESP32-S3-WROOM-1-N16?qs=Li%252BoUPsLEntjPrtJwwS5Pw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.ptrobotics.com/tactile-switch/3100-push-button-spst-12v-50ma-6x6x13mm.html</t>
+  </si>
+  <si>
+    <t>Push Button SPST 12V 50mA - 6x6x13mm</t>
   </si>
 </sst>
 </file>
@@ -169,17 +292,17 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -554,7 +677,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,9 +710,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -674,22 +794,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,13 +818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -753,6 +854,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -783,9 +921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2979420</xdr:colOff>
+      <xdr:colOff>2990850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1118,18 +1256,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="74.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
     <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
@@ -1143,16 +1281,16 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="62" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1160,16 +1298,16 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1177,18 +1315,18 @@
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="70"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1196,18 +1334,18 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1215,18 +1353,18 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="63">
         <v>45578</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1284,15 +1422,27 @@
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="39">
+        <v>16.73</v>
+      </c>
       <c r="H11" s="12">
         <f>D11*G11</f>
-        <v>0</v>
+        <v>16.73</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1304,15 +1454,25 @@
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="39">
+        <v>6.26</v>
+      </c>
       <c r="H12" s="12">
         <f t="shared" ref="H12:H25" si="0">D12*G12</f>
-        <v>0</v>
+        <v>6.26</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1324,15 +1484,25 @@
       <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="40"/>
+      <c r="G13" s="39">
+        <v>3.65</v>
+      </c>
       <c r="H13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1344,15 +1514,25 @@
       <c r="A14" s="8">
         <v>4</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="B14" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="39">
+        <v>0.25</v>
+      </c>
       <c r="H14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1360,19 +1540,29 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>5</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="40"/>
+      <c r="B15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="39">
+        <v>0.35</v>
+      </c>
       <c r="H15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1384,15 +1574,25 @@
       <c r="A16" s="8">
         <v>6</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="39">
+        <v>0.88400000000000001</v>
+      </c>
       <c r="H16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1404,15 +1604,25 @@
       <c r="A17" s="8">
         <v>7</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="39">
+        <v>0.97</v>
+      </c>
       <c r="H17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1424,15 +1634,25 @@
       <c r="A18" s="8">
         <v>8</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="B18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="39">
+        <v>0.16</v>
+      </c>
       <c r="H18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1444,15 +1664,25 @@
       <c r="A19" s="8">
         <v>9</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="40"/>
+      <c r="G19" s="39">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="H19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1464,15 +1694,25 @@
       <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+      <c r="B20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="39">
+        <v>0.26</v>
+      </c>
       <c r="H20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1484,15 +1724,25 @@
       <c r="A21" s="8">
         <v>11</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="40"/>
+      <c r="B21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="45">
+        <v>3</v>
+      </c>
+      <c r="E21" s="45">
+        <v>1</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="39">
+        <v>0.41</v>
+      </c>
       <c r="H21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1504,15 +1754,25 @@
       <c r="A22" s="8">
         <v>12</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="45">
+        <v>2</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="39">
+        <v>0.4</v>
+      </c>
       <c r="H22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1524,15 +1784,25 @@
       <c r="A23" s="8">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="58"/>
+      <c r="B23" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="53">
+        <v>0.15</v>
+      </c>
       <c r="H23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1544,15 +1814,25 @@
       <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="58"/>
+      <c r="B24" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="42">
+        <v>1</v>
+      </c>
+      <c r="E24" s="42">
+        <v>1</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="53">
+        <v>0.13</v>
+      </c>
       <c r="H24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1564,15 +1844,25 @@
       <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="58"/>
+      <c r="G25" s="53">
+        <v>0.78</v>
+      </c>
       <c r="H25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1584,15 +1874,25 @@
       <c r="A26" s="8">
         <v>16</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="B26" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="66">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="40"/>
+      <c r="G26" s="39">
+        <v>0.43</v>
+      </c>
       <c r="H26" s="12">
-        <f>D26*G26</f>
-        <v>0</v>
+        <f>E26*G26</f>
+        <v>0.43</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1600,19 +1900,29 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="57">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>17</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="16">
-        <f>D27*G27</f>
-        <v>0</v>
+      <c r="B27" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" ref="H27:H29" si="1">D27*G27</f>
+        <v>0.5</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1620,120 +1930,149 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>18</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="39">
+        <v>3.29</v>
+      </c>
+      <c r="H28" s="12">
+        <f>D28*G28</f>
+        <v>3.29</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27">
-        <f>SUM(H11:H27)</f>
-        <v>0</v>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>19</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="39">
+        <v>3.31</v>
+      </c>
+      <c r="H29" s="12">
+        <f>D29*G29</f>
+        <v>3.31</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="52">
+        <v>20</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="H30" s="15">
+        <f>D30*G30</f>
+        <v>1</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+    <row r="31" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
+    <row r="33" spans="1:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26">
+        <f>SUM(H11:H27)</f>
+        <v>35.114000000000004</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+    <row r="34" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1741,14 +2080,16 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="12"/>
+      <c r="A35" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1756,6 +2097,16 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -1763,6 +2114,16 @@
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1770,6 +2131,16 @@
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1777,6 +2148,14 @@
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -1819,14 +2198,14 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -1834,14 +2213,14 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1849,14 +2228,14 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1864,14 +2243,14 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -1879,14 +2258,14 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -1894,14 +2273,14 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -1909,14 +2288,14 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -1924,14 +2303,14 @@
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -1939,14 +2318,14 @@
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1954,14 +2333,14 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1969,14 +2348,14 @@
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -1984,14 +2363,14 @@
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -1999,14 +2378,14 @@
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -2014,14 +2393,14 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -2029,14 +2408,14 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2044,14 +2423,14 @@
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -2059,14 +2438,14 @@
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -2074,14 +2453,14 @@
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -2089,14 +2468,14 @@
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -2104,14 +2483,14 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -2119,14 +2498,14 @@
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -2134,14 +2513,14 @@
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -2149,14 +2528,14 @@
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -2164,14 +2543,14 @@
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -2179,14 +2558,14 @@
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -2194,14 +2573,14 @@
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -2209,14 +2588,14 @@
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -2224,14 +2603,14 @@
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -2239,14 +2618,14 @@
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -2254,14 +2633,14 @@
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -2269,14 +2648,14 @@
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
@@ -2284,14 +2663,14 @@
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -2299,14 +2678,14 @@
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
@@ -2314,14 +2693,14 @@
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
@@ -2329,14 +2708,14 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -2344,14 +2723,14 @@
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -2359,14 +2738,14 @@
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -2374,14 +2753,14 @@
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -2389,14 +2768,14 @@
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
@@ -2404,14 +2783,14 @@
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -2419,14 +2798,14 @@
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -2434,14 +2813,14 @@
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -2449,14 +2828,14 @@
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -2464,14 +2843,14 @@
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -2479,14 +2858,14 @@
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -2494,14 +2873,14 @@
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -2509,14 +2888,14 @@
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -2524,14 +2903,14 @@
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -2539,14 +2918,14 @@
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -2554,14 +2933,14 @@
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -2569,14 +2948,14 @@
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -2584,14 +2963,14 @@
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -2599,14 +2978,14 @@
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -2614,14 +2993,14 @@
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -2629,14 +3008,14 @@
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -2644,14 +3023,14 @@
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -2659,14 +3038,14 @@
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -2674,14 +3053,14 @@
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A102" s="17"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -2689,14 +3068,14 @@
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
@@ -2704,14 +3083,14 @@
       <c r="M103" s="1"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -2719,14 +3098,14 @@
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -2734,14 +3113,14 @@
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -2749,14 +3128,14 @@
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -2764,14 +3143,14 @@
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -2779,14 +3158,14 @@
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -2794,14 +3173,14 @@
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
       <c r="F110" s="2"/>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -2809,14 +3188,14 @@
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
+      <c r="A111" s="16"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
       <c r="F111" s="2"/>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -2824,14 +3203,14 @@
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
       <c r="F112" s="2"/>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
@@ -2839,14 +3218,14 @@
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -2854,14 +3233,14 @@
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
+      <c r="A114" s="16"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -2869,14 +3248,14 @@
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
+      <c r="A115" s="16"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="20"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -2884,14 +3263,14 @@
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -2899,14 +3278,14 @@
       <c r="M116" s="1"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
@@ -2914,14 +3293,14 @@
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
@@ -2929,14 +3308,14 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
@@ -2944,14 +3323,14 @@
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -2959,14 +3338,14 @@
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="20"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -2974,14 +3353,14 @@
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -2989,14 +3368,14 @@
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="20"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -3004,14 +3383,14 @@
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="17"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
@@ -3019,14 +3398,14 @@
       <c r="M124" s="1"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
@@ -3034,14 +3413,14 @@
       <c r="M125" s="1"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
@@ -3049,14 +3428,14 @@
       <c r="M126" s="1"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
@@ -3064,14 +3443,14 @@
       <c r="M127" s="1"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="20"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -3079,14 +3458,14 @@
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -3094,14 +3473,14 @@
       <c r="M129" s="1"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -3109,14 +3488,14 @@
       <c r="M130" s="1"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
@@ -3124,14 +3503,14 @@
       <c r="M131" s="1"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
@@ -3139,14 +3518,14 @@
       <c r="M132" s="1"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="20"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
@@ -3154,14 +3533,14 @@
       <c r="M133" s="1"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A134" s="17"/>
+      <c r="A134" s="16"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
@@ -3169,14 +3548,14 @@
       <c r="M134" s="1"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -3184,14 +3563,14 @@
       <c r="M135" s="1"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
       <c r="F136" s="2"/>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -3199,14 +3578,14 @@
       <c r="M136" s="1"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
       <c r="F137" s="2"/>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -3214,14 +3593,14 @@
       <c r="M137" s="1"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
       <c r="F138" s="2"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
+      <c r="G138" s="20"/>
+      <c r="H138" s="20"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
@@ -3229,14 +3608,14 @@
       <c r="M138" s="1"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
       <c r="F139" s="2"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
@@ -3244,14 +3623,14 @@
       <c r="M139" s="1"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
       <c r="F140" s="2"/>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
@@ -3259,14 +3638,14 @@
       <c r="M140" s="1"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
       <c r="F141" s="2"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
@@ -3274,14 +3653,14 @@
       <c r="M141" s="1"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="19"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
       <c r="F142" s="2"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -3289,14 +3668,14 @@
       <c r="M142" s="1"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="19"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
       <c r="F143" s="2"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="20"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -3304,14 +3683,14 @@
       <c r="M143" s="1"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="19"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
       <c r="F144" s="2"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="20"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -3319,14 +3698,14 @@
       <c r="M144" s="1"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A145" s="17"/>
+      <c r="A145" s="16"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
       <c r="F145" s="2"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
@@ -3334,14 +3713,14 @@
       <c r="M145" s="1"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
+      <c r="A146" s="16"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
       <c r="F146" s="2"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
@@ -3349,14 +3728,14 @@
       <c r="M146" s="1"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" s="17"/>
+      <c r="A147" s="16"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
       <c r="F147" s="2"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
@@ -3364,14 +3743,14 @@
       <c r="M147" s="1"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A148" s="17"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
       <c r="F148" s="2"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
@@ -3379,14 +3758,14 @@
       <c r="M148" s="1"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A149" s="17"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="2"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
       <c r="F149" s="2"/>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
@@ -3394,14 +3773,14 @@
       <c r="M149" s="1"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A150" s="17"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
       <c r="F150" s="2"/>
-      <c r="G150" s="21"/>
-      <c r="H150" s="21"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
@@ -3409,14 +3788,14 @@
       <c r="M150" s="1"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A151" s="17"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="2"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="21"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="20"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -3424,14 +3803,14 @@
       <c r="M151" s="1"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A152" s="17"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="2"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
       <c r="F152" s="2"/>
-      <c r="G152" s="21"/>
-      <c r="H152" s="21"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
@@ -3439,14 +3818,14 @@
       <c r="M152" s="1"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" s="17"/>
+      <c r="A153" s="16"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
       <c r="F153" s="2"/>
-      <c r="G153" s="21"/>
-      <c r="H153" s="21"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -3454,14 +3833,14 @@
       <c r="M153" s="1"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="2"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
       <c r="F154" s="2"/>
-      <c r="G154" s="21"/>
-      <c r="H154" s="21"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -3469,14 +3848,14 @@
       <c r="M154" s="1"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" s="17"/>
+      <c r="A155" s="16"/>
       <c r="B155" s="2"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="20"/>
-      <c r="E155" s="20"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
       <c r="F155" s="2"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
@@ -3484,14 +3863,14 @@
       <c r="M155" s="1"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A156" s="17"/>
+      <c r="A156" s="16"/>
       <c r="B156" s="2"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="20"/>
-      <c r="E156" s="20"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
       <c r="F156" s="2"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
@@ -3499,14 +3878,14 @@
       <c r="M156" s="1"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A157" s="17"/>
+      <c r="A157" s="16"/>
       <c r="B157" s="2"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
       <c r="F157" s="2"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
@@ -3514,14 +3893,14 @@
       <c r="M157" s="1"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="17"/>
+      <c r="A158" s="16"/>
       <c r="B158" s="2"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="20"/>
-      <c r="E158" s="20"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="21"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -3529,14 +3908,14 @@
       <c r="M158" s="1"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="17"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="2"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
       <c r="F159" s="2"/>
-      <c r="G159" s="21"/>
-      <c r="H159" s="21"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
@@ -3544,14 +3923,14 @@
       <c r="M159" s="1"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A160" s="17"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="2"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
       <c r="F160" s="2"/>
-      <c r="G160" s="21"/>
-      <c r="H160" s="21"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -3561,12 +3940,12 @@
     <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
       <c r="F161" s="2"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="21"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
@@ -3576,12 +3955,12 @@
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="21"/>
-      <c r="H162" s="21"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
@@ -3591,9 +3970,9 @@
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
@@ -3619,37 +3998,46 @@
       <c r="M164" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
+    <mergeCell ref="B35:H35"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="D7:H7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{F2DD836B-96EA-4794-BFEB-0A8AA5CAC8D0}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{07FCB00D-52D2-44BB-AE90-65A640F1760E}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{E017B4D8-D160-42A6-8614-01781EE832EB}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{14912536-D2A4-42FA-A640-FECC375CF2E3}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{C56F6D3D-38AB-42C5-9245-875DCBEE5290}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{9722F4AA-57CC-42CC-AA8C-81D97CBDAAE8}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{9701D2E8-765D-4009-9E6D-C724AD2DACDB}"/>
+    <hyperlink ref="C23" r:id="rId8" xr:uid="{61A5BBBE-51F1-4FD5-89AE-185B6D3B2BA3}"/>
+    <hyperlink ref="C29" r:id="rId9" xr:uid="{AD518E9B-D6FD-48C4-9333-C17E08332D43}"/>
+    <hyperlink ref="C30" r:id="rId10" xr:uid="{79DC6E0C-E27D-4FF8-B1B9-249A97A26082}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3797,18 +4185,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6B757D8-4EE9-4947-805A-6D8E0926D1C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BF56905-204F-4FE4-83E7-DA45A1EAA422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BF56905-204F-4FE4-83E7-DA45A1EAA422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6B757D8-4EE9-4947-805A-6D8E0926D1C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/IMU RC - Custos_2.xlsx
+++ b/docs/IMU RC - Custos_2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3680B-8655-4557-A080-00E1EB8544D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81B846B-23F3-44F2-8749-CC1E182491DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -818,6 +818,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,9 +870,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -854,43 +885,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1256,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M164"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,8 +1262,8 @@
     <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" customWidth="1"/>
     <col min="10" max="10" width="5.21875" customWidth="1"/>
     <col min="11" max="11" width="5.44140625" customWidth="1"/>
@@ -1283,14 +1277,14 @@
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="28"/>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1300,14 +1294,14 @@
     <row r="4" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1320,13 +1314,13 @@
       <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1339,13 +1333,13 @@
       <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1358,13 +1352,13 @@
       <c r="C7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="63">
-        <v>45578</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="D7" s="74">
+        <v>45665</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1425,7 +1419,7 @@
       <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="57" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="11">
@@ -1457,7 +1451,7 @@
       <c r="B12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="58" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="11">
@@ -1487,7 +1481,7 @@
       <c r="B13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="11">
@@ -1517,7 +1511,7 @@
       <c r="B14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="11">
@@ -1547,7 +1541,7 @@
       <c r="B15" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="35">
@@ -1577,7 +1571,7 @@
       <c r="B16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="57" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="11">
@@ -1607,7 +1601,7 @@
       <c r="B17" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="11">
@@ -1637,7 +1631,7 @@
       <c r="B18" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="11">
@@ -1667,7 +1661,7 @@
       <c r="B19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="11">
@@ -1697,7 +1691,7 @@
       <c r="B20" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="57" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="11">
@@ -1727,7 +1721,7 @@
       <c r="B21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="58" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="45">
@@ -1757,7 +1751,7 @@
       <c r="B22" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="58" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="45">
@@ -1784,10 +1778,10 @@
       <c r="A23" s="8">
         <v>13</v>
       </c>
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="58" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="45">
@@ -1814,10 +1808,10 @@
       <c r="A24" s="8">
         <v>14</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="60" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="42">
@@ -1844,10 +1838,10 @@
       <c r="A25" s="8">
         <v>15</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="11">
@@ -1877,10 +1871,10 @@
       <c r="B26" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="54">
         <v>1</v>
       </c>
       <c r="E26" s="11">
@@ -1904,10 +1898,10 @@
       <c r="A27" s="8">
         <v>17</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="58" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="11">
@@ -1921,7 +1915,7 @@
         <v>0.5</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" ref="H27:H29" si="1">D27*G27</f>
+        <f t="shared" ref="H27" si="1">D27*G27</f>
         <v>0.5</v>
       </c>
       <c r="I27" s="1"/>
@@ -1937,7 +1931,7 @@
       <c r="B28" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="61" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="11">
@@ -1967,7 +1961,7 @@
       <c r="B29" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="62" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="11">
@@ -1987,17 +1981,17 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="78"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="52">
         <v>20</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="63" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="14">
@@ -2083,13 +2077,13 @@
       <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -4026,18 +4020,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4185,18 +4179,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BF56905-204F-4FE4-83E7-DA45A1EAA422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6B757D8-4EE9-4947-805A-6D8E0926D1C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6B757D8-4EE9-4947-805A-6D8E0926D1C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BF56905-204F-4FE4-83E7-DA45A1EAA422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
